--- a/resultados/fitossociologico.xlsx
+++ b/resultados/fitossociologico.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t xml:space="preserve">familia</t>
   </si>
@@ -20,10 +20,13 @@
     <t xml:space="preserve">especie</t>
   </si>
   <si>
+    <t xml:space="preserve">n_parcelas</t>
+  </si>
+  <si>
     <t xml:space="preserve">n</t>
   </si>
   <si>
-    <t xml:space="preserve">area_basal</t>
+    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">v_total</t>
@@ -44,319 +47,307 @@
     <t xml:space="preserve">dom_rel</t>
   </si>
   <si>
+    <t xml:space="preserve">freq_abs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freq_rel</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVI</t>
   </si>
   <si>
-    <t xml:space="preserve">Pittosporaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pittosporum undulatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araucariaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araucaria angustifolia</t>
+    <t xml:space="preserve">Anacardiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tapirira guianensis Aubl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pera glabrata (Schott) Baill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calophyllaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calophyllum brasiliense Cambess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nectandra oppositifolia Nees &amp; Mart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquifoliaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilex dumosa Reissek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocotea pulchella (Nees &amp; Mart.) Mez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocotea aciphylla (Nees &amp; Mart.) Mez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arecaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euterpe edulis Mart.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrtaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrcia racemosa (O.Berg) Kiaersk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andira fraxinifolia Benth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficus gomelleira Kunth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ficus cestrifolia Schott ex Spreng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aniba firmula (Nees &amp; Mart.) Mez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amaioua guianensis Aubl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Araliacaeae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didymopanax angustissimus Marchal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ormosia arborea (Vell.) Harms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primulaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrsine venosa A.DC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clethraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clethra scabra Pers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilex theezans Mart. ex Reissek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Araliaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapotaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pouteria beaurepairei (Glaz. &amp; Raunk.) Baehni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annonaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatteria australis A.St.-Hil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clusiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garcinia gardneriana (Planch. &amp; Triana) Zappi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psidium cattleyanum Sabine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manilkara subsericea (Mart.) Dubard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euphorbiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchornea triplinervia (Spreng.) Müll.Arg.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celastraceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monteverdia gonoclada (Mart.) Biral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urticaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cecropia glaziovii Snethl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xylopia langsdorffiana A.St.-Hil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparisthmium cordatum (A.Juss.) Baill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erythropalaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heisteria silvianii Schwacke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clusia criuva Cambess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunoniaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weinmannia paulliniifolia Pohl ex Ser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapindaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matayba guianensis Aubl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrcia reitzii (D.Legrand) Mazine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaeocarpaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sloanea hirsuta (Schott) Planch. ex Benth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endlicheria paniculata (Spreng.) J.F.Macbr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podocarpaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podocarpus sellowii Klotzsch ex Endl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyatheaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyathea atrovirens (Langsd. &amp; Fisch.) Domin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrcia pubipetala Miq.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrcia multiflora (Lam.) DC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilex pseudobuxus Reissek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchornea glandulosa Poepp. &amp; Endl.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentaphylacaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ternstroemia brasiliensis Cambess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phyllanthaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyeronima alchorneoides Allemão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sloanea guianensis (Aubl.) Benth.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrcia brasiliensis Kiaersk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocotea glaziovii Mez</t>
   </si>
   <si>
     <t xml:space="preserve">Oleaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Ligustrum lucidum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lythraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lafoensia pacari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhamnaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hovenia dulcis</t>
+    <t xml:space="preserve">Chionanthus filiformis (Vell.) P.S.Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugenia sp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eugenia astringens Cambess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posoqueria latifolia (Rudge) Schult.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiouea saligna Meisn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schinus terebinthifolia Raddi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meliaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guarea macrophylla Vahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melastomataceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miconia cubatanensis Hoehne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abarema langsdorffii (Benth.) Barneby &amp; J.W.Grimes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malpighiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byrsonima ligustrifolia A.Juss.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myrcia hebepetala DC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xylopia brasiliensis Spreng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maprounea guianensis Aubl.</t>
   </si>
   <si>
     <t xml:space="preserve">Bignoniaceae</t>
   </si>
   <si>
-    <t xml:space="preserve">Handroanthus chrysotrichus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrina falcata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrtaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curitiba prismatica </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salicaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casearia sylvestris </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anadenanthera colubrina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malvaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceiba speciosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenia uniflora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sapindaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matayba elaeagnoides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arecaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syagrus romanzofiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocotea puberula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocotea nutans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livistona chinensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cupressaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cryptomeria japonica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocotea bicolor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterogyne nitens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meliaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cedrela fissilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficus benjamina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prunus myrtifolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plinia peruviana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juglandaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carya illinoinensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proteaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grevillea robusta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anacardiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schinus terebinthifolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cupressus lusitanica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camellia japonica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ficus luschnatiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roupala montana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipuana tipu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalbergia brasiliensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allophylus edulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyctaginaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bougainvillea spectabilis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trachycarpus fortunei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podocarpaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podocarpus lambertii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacaranda puberula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parapiptadenia rigida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primulaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrsine coriacea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunoniaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamanonia ternata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaeocarpaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sloanea lasiocoma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eucalyptus cinerea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrcia hatschbachii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solanaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solanum mauritianum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cunninghamia lanceolata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lonchocarpus nitidus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euterpe edulis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casearia decandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asparagaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dracaena fragrans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenia pluriflora </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Casearia obliqua </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacaranda mimosifolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psidium cattleyanum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eriobotrya japonica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blepharocalyx salicifolius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myrcia splendens </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pimenta pseudocaryophyllus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banara parviflora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persea willdenovii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caryota urens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecythidaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cariniana estrellensis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celastraceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monteverdia evonymoides</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocotea odorifera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phoenix roebelenii</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitex megapotamica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pterocarpus violaceus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bauhinia forficata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euphorbiaceae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gymnanthes klotzschiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Holocalyx balansae </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenia involucrata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Machaerium stipitatum</t>
+    <t xml:space="preserve">Handroanthus botelhensis (A.H.Gentry) S.Grose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phyllantaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hieronyma alchorneoides Allemão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matayba elaeagnoides Radlk.</t>
   </si>
 </sst>
 </file>
@@ -722,2525 +713,2874 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.88</v>
+        <v>206</v>
       </c>
       <c r="E2" t="n">
-        <v>4.52</v>
+        <v>8.14</v>
       </c>
       <c r="F2" t="n">
-        <v>2.28</v>
+        <v>56.33</v>
       </c>
       <c r="G2" t="n">
-        <v>154.55</v>
+        <v>29.89</v>
       </c>
       <c r="H2" t="n">
-        <v>21.25</v>
+        <v>8.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>15.35</v>
       </c>
       <c r="J2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K2" t="n">
+        <v>27.43</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
         <v>4.65</v>
       </c>
-      <c r="K2" t="n">
-        <v>25.9</v>
+      <c r="N2" t="n">
+        <v>47.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>3.28</v>
+        <v>134</v>
       </c>
       <c r="E3" t="n">
-        <v>30.72</v>
+        <v>2.17</v>
       </c>
       <c r="F3" t="n">
-        <v>24.23</v>
+        <v>15.18</v>
       </c>
       <c r="G3" t="n">
-        <v>18.18</v>
+        <v>8.12</v>
       </c>
       <c r="H3" t="n">
-        <v>2.5</v>
+        <v>5.38</v>
       </c>
       <c r="I3" t="n">
-        <v>7.45</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>17.34</v>
+        <v>0.09</v>
       </c>
       <c r="K3" t="n">
-        <v>19.84</v>
+        <v>7.31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="N3" t="n">
+        <v>21.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.55</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>8.97</v>
+        <v>2.78</v>
       </c>
       <c r="F4" t="n">
-        <v>4.93</v>
+        <v>21.24</v>
       </c>
       <c r="G4" t="n">
-        <v>59.09</v>
+        <v>12.9</v>
       </c>
       <c r="H4" t="n">
-        <v>8.12</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.53</v>
+        <v>1.86</v>
       </c>
       <c r="J4" t="n">
-        <v>8.21</v>
+        <v>0.11</v>
       </c>
       <c r="K4" t="n">
-        <v>16.34</v>
+        <v>9.37</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.89</v>
+        <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>6.73</v>
+        <v>2.19</v>
       </c>
       <c r="F5" t="n">
-        <v>3.09</v>
+        <v>13.62</v>
       </c>
       <c r="G5" t="n">
-        <v>29.55</v>
+        <v>7.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.06</v>
+        <v>1.25</v>
       </c>
       <c r="I5" t="n">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="J5" t="n">
-        <v>4.69</v>
+        <v>0.09</v>
       </c>
       <c r="K5" t="n">
-        <v>8.76</v>
+        <v>7.38</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>62</v>
       </c>
       <c r="E6" t="n">
-        <v>2.62</v>
+        <v>1.45</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>8.34</v>
       </c>
       <c r="G6" t="n">
-        <v>40.91</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>5.62</v>
+        <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>0.92</v>
+        <v>4.65</v>
       </c>
       <c r="J6" t="n">
-        <v>2.13</v>
+        <v>0.06</v>
       </c>
       <c r="K6" t="n">
-        <v>7.76</v>
+        <v>4.89</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1.18</v>
+        <v>66</v>
       </c>
       <c r="E7" t="n">
-        <v>7.06</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>6.67</v>
       </c>
       <c r="G7" t="n">
-        <v>6.82</v>
+        <v>3.65</v>
       </c>
       <c r="H7" t="n">
-        <v>0.94</v>
+        <v>2.62</v>
       </c>
       <c r="I7" t="n">
-        <v>2.69</v>
+        <v>4.88</v>
       </c>
       <c r="J7" t="n">
-        <v>6.26</v>
+        <v>0.04</v>
       </c>
       <c r="K7" t="n">
-        <v>7.2</v>
+        <v>3.36</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11.73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1.24</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
-        <v>14.57</v>
+        <v>0.77</v>
       </c>
       <c r="F8" t="n">
-        <v>7.5</v>
+        <v>5.34</v>
       </c>
       <c r="G8" t="n">
-        <v>4.55</v>
+        <v>2.82</v>
       </c>
       <c r="H8" t="n">
-        <v>0.62</v>
+        <v>1.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.81</v>
+        <v>2.79</v>
       </c>
       <c r="J8" t="n">
-        <v>6.54</v>
+        <v>0.03</v>
       </c>
       <c r="K8" t="n">
-        <v>7.17</v>
+        <v>2.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21</v>
+        <v>59</v>
       </c>
       <c r="E9" t="n">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="F9" t="n">
-        <v>0.35</v>
+        <v>1.09</v>
       </c>
       <c r="G9" t="n">
-        <v>43.18</v>
+        <v>0.94</v>
       </c>
       <c r="H9" t="n">
-        <v>5.94</v>
+        <v>2.38</v>
       </c>
       <c r="I9" t="n">
-        <v>0.49</v>
+        <v>4.42</v>
       </c>
       <c r="J9" t="n">
-        <v>1.14</v>
+        <v>0.02</v>
       </c>
       <c r="K9" t="n">
-        <v>7.07</v>
+        <v>1.47</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.34</v>
+        <v>66</v>
       </c>
       <c r="E10" t="n">
-        <v>1.62</v>
+        <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="G10" t="n">
-        <v>34.09</v>
+        <v>0.77</v>
       </c>
       <c r="H10" t="n">
-        <v>4.69</v>
+        <v>2.62</v>
       </c>
       <c r="I10" t="n">
-        <v>0.78</v>
+        <v>4.88</v>
       </c>
       <c r="J10" t="n">
-        <v>1.82</v>
+        <v>0.02</v>
       </c>
       <c r="K10" t="n">
-        <v>6.51</v>
+        <v>1.35</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>0.83</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
-        <v>5.77</v>
+        <v>0.54</v>
       </c>
       <c r="F11" t="n">
-        <v>8.19</v>
+        <v>2.57</v>
       </c>
       <c r="G11" t="n">
-        <v>4.55</v>
+        <v>1.51</v>
       </c>
       <c r="H11" t="n">
-        <v>0.62</v>
+        <v>1.75</v>
       </c>
       <c r="I11" t="n">
-        <v>1.89</v>
+        <v>3.26</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>0.02</v>
       </c>
       <c r="K11" t="n">
-        <v>5.03</v>
+        <v>1.81</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8.55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.58</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>6.43</v>
+        <v>1.47</v>
       </c>
       <c r="F12" t="n">
-        <v>2.81</v>
+        <v>18.05</v>
       </c>
       <c r="G12" t="n">
-        <v>13.64</v>
+        <v>10.83</v>
       </c>
       <c r="H12" t="n">
-        <v>1.88</v>
+        <v>0.38</v>
       </c>
       <c r="I12" t="n">
-        <v>1.32</v>
+        <v>0.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.07</v>
+        <v>0.06</v>
       </c>
       <c r="K12" t="n">
-        <v>4.94</v>
+        <v>4.97</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7.41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.39</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="F13" t="n">
-        <v>0.66</v>
+        <v>18.45</v>
       </c>
       <c r="G13" t="n">
-        <v>20.45</v>
+        <v>7.13</v>
       </c>
       <c r="H13" t="n">
-        <v>2.81</v>
+        <v>0.25</v>
       </c>
       <c r="I13" t="n">
-        <v>0.88</v>
+        <v>0.47</v>
       </c>
       <c r="J13" t="n">
-        <v>2.04</v>
+        <v>0.07</v>
       </c>
       <c r="K13" t="n">
-        <v>4.85</v>
+        <v>5.65</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>0.65</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>5.37</v>
+        <v>0.26</v>
       </c>
       <c r="F14" t="n">
-        <v>1.28</v>
+        <v>1.1</v>
       </c>
       <c r="G14" t="n">
-        <v>6.82</v>
+        <v>0.68</v>
       </c>
       <c r="H14" t="n">
-        <v>0.94</v>
+        <v>1.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1.48</v>
+        <v>2.33</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>0.01</v>
       </c>
       <c r="K14" t="n">
-        <v>4.38</v>
+        <v>0.89</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.34</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
-        <v>1.61</v>
+        <v>0.35</v>
       </c>
       <c r="F15" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="G15" t="n">
-        <v>15.91</v>
+        <v>0.74</v>
       </c>
       <c r="H15" t="n">
-        <v>2.19</v>
+        <v>1.75</v>
       </c>
       <c r="I15" t="n">
-        <v>0.77</v>
+        <v>3.26</v>
       </c>
       <c r="J15" t="n">
-        <v>1.79</v>
+        <v>0.01</v>
       </c>
       <c r="K15" t="n">
-        <v>3.97</v>
+        <v>1.17</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.42</v>
+        <v>12</v>
       </c>
       <c r="E16" t="n">
-        <v>3.93</v>
+        <v>0.78</v>
       </c>
       <c r="F16" t="n">
-        <v>1.29</v>
+        <v>3.06</v>
       </c>
       <c r="G16" t="n">
-        <v>11.36</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>1.56</v>
+        <v>0.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="J16" t="n">
-        <v>2.22</v>
+        <v>0.03</v>
       </c>
       <c r="K16" t="n">
-        <v>3.78</v>
+        <v>2.64</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.46</v>
+        <v>22</v>
       </c>
       <c r="E17" t="n">
-        <v>3.8</v>
+        <v>0.37</v>
       </c>
       <c r="F17" t="n">
-        <v>1.27</v>
+        <v>3.01</v>
       </c>
       <c r="G17" t="n">
-        <v>9.09</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="I17" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="J17" t="n">
-        <v>2.44</v>
+        <v>0.01</v>
       </c>
       <c r="K17" t="n">
-        <v>3.69</v>
+        <v>1.26</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>0.34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>0.86</v>
+        <v>0.2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.72</v>
+        <v>0.88</v>
       </c>
       <c r="G18" t="n">
-        <v>11.36</v>
+        <v>0.43</v>
       </c>
       <c r="H18" t="n">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="I18" t="n">
-        <v>0.78</v>
+        <v>2.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.82</v>
+        <v>0.01</v>
       </c>
       <c r="K18" t="n">
-        <v>3.38</v>
+        <v>0.68</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.24</v>
+        <v>28</v>
       </c>
       <c r="E19" t="n">
-        <v>1.38</v>
+        <v>0.26</v>
       </c>
       <c r="F19" t="n">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>13.64</v>
+        <v>0.77</v>
       </c>
       <c r="H19" t="n">
-        <v>1.88</v>
+        <v>1.12</v>
       </c>
       <c r="I19" t="n">
-        <v>0.56</v>
+        <v>2.09</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>0.01</v>
       </c>
       <c r="K19" t="n">
-        <v>3.17</v>
+        <v>0.89</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0.32</v>
+        <v>38</v>
       </c>
       <c r="E20" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="G20" t="n">
-        <v>9.09</v>
+        <v>0.57</v>
       </c>
       <c r="H20" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="I20" t="n">
-        <v>0.73</v>
+        <v>2.79</v>
       </c>
       <c r="J20" t="n">
-        <v>1.69</v>
+        <v>0.01</v>
       </c>
       <c r="K20" t="n">
-        <v>2.94</v>
+        <v>0.76</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.35</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>2.48</v>
+        <v>0.63</v>
       </c>
       <c r="F21" t="n">
-        <v>0.89</v>
+        <v>5.36</v>
       </c>
       <c r="G21" t="n">
-        <v>6.82</v>
+        <v>0.86</v>
       </c>
       <c r="H21" t="n">
-        <v>0.94</v>
+        <v>0.25</v>
       </c>
       <c r="I21" t="n">
-        <v>0.79</v>
+        <v>0.47</v>
       </c>
       <c r="J21" t="n">
-        <v>1.85</v>
+        <v>0.03</v>
       </c>
       <c r="K21" t="n">
-        <v>2.78</v>
+        <v>2.12</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>0.36</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>3.23</v>
+        <v>0.27</v>
       </c>
       <c r="F22" t="n">
-        <v>1.44</v>
+        <v>0.86</v>
       </c>
       <c r="G22" t="n">
-        <v>4.55</v>
+        <v>0.55</v>
       </c>
       <c r="H22" t="n">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="I22" t="n">
-        <v>0.82</v>
+        <v>1.4</v>
       </c>
       <c r="J22" t="n">
-        <v>1.91</v>
+        <v>0.01</v>
       </c>
       <c r="K22" t="n">
-        <v>2.54</v>
+        <v>0.9</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>0.29</v>
+        <v>25</v>
       </c>
       <c r="E23" t="n">
-        <v>1.7</v>
+        <v>0.12</v>
       </c>
       <c r="F23" t="n">
-        <v>0.99</v>
+        <v>0.44</v>
       </c>
       <c r="G23" t="n">
-        <v>6.82</v>
+        <v>0.26</v>
       </c>
       <c r="H23" t="n">
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.65</v>
+        <v>1.86</v>
       </c>
       <c r="J23" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2.45</v>
+        <v>0.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>0.26</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
-        <v>2.14</v>
+        <v>0.09</v>
       </c>
       <c r="F24" t="n">
-        <v>1.04</v>
+        <v>0.24</v>
       </c>
       <c r="G24" t="n">
-        <v>6.82</v>
+        <v>0.12</v>
       </c>
       <c r="H24" t="n">
-        <v>0.94</v>
+        <v>0.75</v>
       </c>
       <c r="I24" t="n">
-        <v>0.58</v>
+        <v>1.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>2.3</v>
+        <v>0.31</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>0.14</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="G25" t="n">
-        <v>11.36</v>
+        <v>0.18</v>
       </c>
       <c r="H25" t="n">
-        <v>1.56</v>
+        <v>0.5</v>
       </c>
       <c r="I25" t="n">
-        <v>0.31</v>
+        <v>0.93</v>
       </c>
       <c r="J25" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>2.28</v>
+        <v>0.26</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.51</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>0.33</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>1.49</v>
+        <v>0.21</v>
       </c>
       <c r="F26" t="n">
-        <v>0.83</v>
+        <v>1.1</v>
       </c>
       <c r="G26" t="n">
-        <v>2.27</v>
+        <v>0.65</v>
       </c>
       <c r="H26" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="I26" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="J26" t="n">
-        <v>1.75</v>
+        <v>0.01</v>
       </c>
       <c r="K26" t="n">
-        <v>2.06</v>
+        <v>0.7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>0.12</v>
+        <v>16</v>
       </c>
       <c r="E27" t="n">
-        <v>0.87</v>
+        <v>0.13</v>
       </c>
       <c r="F27" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="G27" t="n">
-        <v>9.09</v>
+        <v>0.29</v>
       </c>
       <c r="H27" t="n">
-        <v>1.25</v>
+        <v>0.62</v>
       </c>
       <c r="I27" t="n">
-        <v>0.28</v>
+        <v>1.16</v>
       </c>
       <c r="J27" t="n">
-        <v>0.65</v>
+        <v>0.01</v>
       </c>
       <c r="K27" t="n">
-        <v>1.9</v>
+        <v>0.44</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="n">
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>0.17</v>
+        <v>16</v>
       </c>
       <c r="E28" t="n">
-        <v>0.84</v>
+        <v>0.12</v>
       </c>
       <c r="F28" t="n">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="G28" t="n">
-        <v>6.82</v>
+        <v>0.33</v>
       </c>
       <c r="H28" t="n">
-        <v>0.94</v>
+        <v>0.62</v>
       </c>
       <c r="I28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.4</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1.86</v>
+      <c r="L28" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>0.11</v>
+        <v>16</v>
       </c>
       <c r="E29" t="n">
-        <v>0.46</v>
+        <v>0.09</v>
       </c>
       <c r="F29" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="G29" t="n">
-        <v>9.09</v>
+        <v>0.32</v>
       </c>
       <c r="H29" t="n">
-        <v>1.25</v>
+        <v>0.62</v>
       </c>
       <c r="I29" t="n">
-        <v>0.25</v>
+        <v>1.16</v>
       </c>
       <c r="J29" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.84</v>
+        <v>0.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03</v>
+        <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="G30" t="n">
-        <v>11.36</v>
+        <v>0.16</v>
       </c>
       <c r="H30" t="n">
-        <v>1.56</v>
+        <v>0.62</v>
       </c>
       <c r="I30" t="n">
-        <v>0.07</v>
+        <v>1.16</v>
       </c>
       <c r="J30" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1.73</v>
+        <v>0.28</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06</v>
+        <v>19</v>
       </c>
       <c r="E31" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="G31" t="n">
-        <v>9.09</v>
+        <v>0.33</v>
       </c>
       <c r="H31" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="I31" t="n">
-        <v>0.14</v>
+        <v>1.4</v>
       </c>
       <c r="J31" t="n">
-        <v>0.34</v>
+        <v>0.01</v>
       </c>
       <c r="K31" t="n">
-        <v>1.59</v>
+        <v>0.58</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>0.12</v>
+        <v>12</v>
       </c>
       <c r="E32" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.13</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6.82</v>
-      </c>
       <c r="H32" t="n">
-        <v>0.94</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
-        <v>0.27</v>
+        <v>0.93</v>
       </c>
       <c r="J32" t="n">
-        <v>0.63</v>
+        <v>0.01</v>
       </c>
       <c r="K32" t="n">
-        <v>1.57</v>
+        <v>0.89</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.99</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.18</v>
+        <v>22</v>
       </c>
       <c r="E33" t="n">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="F33" t="n">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="G33" t="n">
-        <v>4.55</v>
+        <v>0.36</v>
       </c>
       <c r="H33" t="n">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4</v>
+        <v>1.63</v>
       </c>
       <c r="J33" t="n">
-        <v>0.93</v>
+        <v>0.01</v>
       </c>
       <c r="K33" t="n">
-        <v>1.55</v>
+        <v>0.67</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>2.15</v>
+        <v>0.31</v>
       </c>
       <c r="F34" t="n">
-        <v>0.49</v>
+        <v>1.78</v>
       </c>
       <c r="G34" t="n">
-        <v>2.27</v>
+        <v>0.41</v>
       </c>
       <c r="H34" t="n">
-        <v>0.31</v>
+        <v>0.62</v>
       </c>
       <c r="I34" t="n">
-        <v>0.46</v>
+        <v>1.16</v>
       </c>
       <c r="J34" t="n">
-        <v>1.06</v>
+        <v>0.01</v>
       </c>
       <c r="K34" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>0.32</v>
+        <v>0.17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.16</v>
+        <v>0.95</v>
       </c>
       <c r="G35" t="n">
-        <v>6.82</v>
+        <v>0.53</v>
       </c>
       <c r="H35" t="n">
-        <v>0.94</v>
+        <v>0.5</v>
       </c>
       <c r="I35" t="n">
-        <v>0.16</v>
+        <v>0.93</v>
       </c>
       <c r="J35" t="n">
-        <v>0.37</v>
+        <v>0.01</v>
       </c>
       <c r="K35" t="n">
-        <v>1.31</v>
+        <v>0.58</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
+        <v>16</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.07</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6.82</v>
-      </c>
       <c r="H36" t="n">
-        <v>0.94</v>
+        <v>0.62</v>
       </c>
       <c r="I36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.16</v>
       </c>
-      <c r="J36" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K36" t="n">
-        <v>1.3</v>
+      <c r="L36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="G37" t="n">
-        <v>6.82</v>
+        <v>0.17</v>
       </c>
       <c r="H37" t="n">
-        <v>0.94</v>
+        <v>0.38</v>
       </c>
       <c r="I37" t="n">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="J37" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.29</v>
+        <v>0.18</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>0.18</v>
+        <v>9</v>
       </c>
       <c r="E38" t="n">
-        <v>0.92</v>
+        <v>0.05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="G38" t="n">
-        <v>2.27</v>
+        <v>0.17</v>
       </c>
       <c r="H38" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="I38" t="n">
-        <v>0.42</v>
+        <v>0.7</v>
       </c>
       <c r="J38" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.29</v>
+        <v>0.17</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
         <v>3</v>
       </c>
-      <c r="D39" t="n">
-        <v>0.04</v>
-      </c>
       <c r="E39" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08</v>
+        <v>1.89</v>
       </c>
       <c r="G39" t="n">
-        <v>6.82</v>
+        <v>1.02</v>
       </c>
       <c r="H39" t="n">
-        <v>0.94</v>
+        <v>0.12</v>
       </c>
       <c r="I39" t="n">
-        <v>0.09</v>
+        <v>0.23</v>
       </c>
       <c r="J39" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="K39" t="n">
-        <v>1.16</v>
+        <v>0.98</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.16</v>
       </c>
-      <c r="E40" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1.14</v>
+      <c r="L40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="F41" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.25</v>
       </c>
-      <c r="G41" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.62</v>
-      </c>
       <c r="I41" t="n">
-        <v>0.12</v>
+        <v>0.47</v>
       </c>
       <c r="J41" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.91</v>
+        <v>0.14</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
-        <v>0.39</v>
+        <v>0.03</v>
       </c>
       <c r="F42" t="n">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="G42" t="n">
-        <v>2.27</v>
+        <v>0.03</v>
       </c>
       <c r="H42" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I42" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.25</v>
       </c>
-      <c r="J42" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.9</v>
+      <c r="M42" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>0.64</v>
+        <v>0.02</v>
       </c>
       <c r="F43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H43" t="n">
         <v>0.25</v>
       </c>
-      <c r="G43" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.31</v>
-      </c>
       <c r="I43" t="n">
-        <v>0.22</v>
+        <v>0.47</v>
       </c>
       <c r="J43" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.83</v>
+        <v>0.06</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0.09</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>0.55</v>
+        <v>0.02</v>
       </c>
       <c r="F44" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="G44" t="n">
-        <v>2.27</v>
+        <v>0.02</v>
       </c>
       <c r="H44" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I44" t="n">
-        <v>0.21</v>
+        <v>0.47</v>
       </c>
       <c r="J44" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.68</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>0.83</v>
+        <v>0.12</v>
       </c>
       <c r="F45" t="n">
-        <v>0.21</v>
+        <v>0.75</v>
       </c>
       <c r="G45" t="n">
-        <v>2.27</v>
+        <v>0.19</v>
       </c>
       <c r="H45" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2</v>
+        <v>0.47</v>
       </c>
       <c r="J45" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.78</v>
+        <v>0.4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="F46" t="n">
-        <v>0.04</v>
+        <v>0.59</v>
       </c>
       <c r="G46" t="n">
-        <v>4.55</v>
+        <v>0.31</v>
       </c>
       <c r="H46" t="n">
-        <v>0.62</v>
+        <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="J46" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.77</v>
+        <v>0.37</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
+        <v>9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F47" t="n">
         <v>0.09</v>
       </c>
-      <c r="E47" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.47</v>
-      </c>
       <c r="G47" t="n">
-        <v>2.27</v>
+        <v>0.06</v>
       </c>
       <c r="H47" t="n">
-        <v>0.31</v>
+        <v>0.38</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="J47" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.77</v>
+        <v>0.11</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="F48" t="n">
         <v>0.06</v>
       </c>
       <c r="G48" t="n">
-        <v>4.55</v>
+        <v>0.04</v>
       </c>
       <c r="H48" t="n">
-        <v>0.62</v>
+        <v>0.25</v>
       </c>
       <c r="I48" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.06</v>
       </c>
-      <c r="J48" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.76</v>
+      <c r="L48" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.07</v>
+        <v>0.31</v>
       </c>
       <c r="G49" t="n">
-        <v>4.55</v>
+        <v>0.19</v>
       </c>
       <c r="H49" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
       <c r="I49" t="n">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.73</v>
+        <v>0.21</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F50" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="G50" t="n">
-        <v>4.55</v>
+        <v>0.1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
       <c r="I50" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="J50" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.69</v>
+        <v>0.14</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E51" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="G51" t="n">
-        <v>4.55</v>
+        <v>0.14</v>
       </c>
       <c r="H51" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
       <c r="I51" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="J51" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0.67</v>
+        <v>0.13</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01</v>
+        <v>0.19</v>
       </c>
       <c r="G52" t="n">
-        <v>4.55</v>
+        <v>0.1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.62</v>
+        <v>0.12</v>
       </c>
       <c r="I52" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="J52" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.67</v>
+        <v>0.13</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>0.64</v>
+        <v>0.04</v>
       </c>
       <c r="F53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
         <v>0.13</v>
       </c>
-      <c r="G53" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.67</v>
+      <c r="L53" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.94</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06</v>
+        <v>3</v>
       </c>
       <c r="E54" t="n">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="F54" t="n">
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="G54" t="n">
-        <v>2.27</v>
+        <v>0.08</v>
       </c>
       <c r="H54" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I54" t="n">
-        <v>0.13</v>
+        <v>0.23</v>
       </c>
       <c r="J54" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0.62</v>
+        <v>0.08</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="E55" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="F55" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="G55" t="n">
-        <v>2.27</v>
+        <v>0.04</v>
       </c>
       <c r="H55" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I55" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="J55" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0.59</v>
+        <v>0.07</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04</v>
+        <v>3</v>
       </c>
       <c r="E56" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="F56" t="n">
-        <v>0.14</v>
+        <v>0.07</v>
       </c>
       <c r="G56" t="n">
-        <v>2.27</v>
+        <v>0.03</v>
       </c>
       <c r="H56" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I56" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="J56" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.5</v>
+        <v>0.07</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.03</v>
       </c>
-      <c r="E57" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G57" t="n">
-        <v>2.27</v>
-      </c>
       <c r="H57" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I57" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
         <v>0.06</v>
       </c>
-      <c r="J57" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.46</v>
+      <c r="L57" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F58" t="n">
         <v>0.03</v>
       </c>
-      <c r="E58" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
         <v>0.05</v>
       </c>
-      <c r="G58" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.45</v>
+      <c r="L58" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
       </c>
       <c r="D59" t="n">
+        <v>3</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.02</v>
       </c>
-      <c r="E59" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2.27</v>
-      </c>
       <c r="H59" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I59" t="n">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="J59" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="F60" t="n">
         <v>0.03</v>
       </c>
       <c r="G60" t="n">
-        <v>2.27</v>
+        <v>0.02</v>
       </c>
       <c r="H60" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="J60" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0.42</v>
+        <v>0.03</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.02</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>0.13</v>
+        <v>0.01</v>
       </c>
       <c r="F61" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="G61" t="n">
-        <v>2.27</v>
+        <v>0.01</v>
       </c>
       <c r="H61" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I61" t="n">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0.42</v>
+        <v>0.03</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02</v>
+        <v>3</v>
       </c>
       <c r="E62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.03</v>
       </c>
-      <c r="F62" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2.27</v>
-      </c>
       <c r="H62" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I62" t="n">
-        <v>0.04</v>
+        <v>0.23</v>
       </c>
       <c r="J62" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0.39</v>
+        <v>0.03</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
       </c>
       <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.01</v>
       </c>
-      <c r="E63" t="n">
-        <v>0.07</v>
-      </c>
       <c r="F63" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G63" t="n">
-        <v>2.27</v>
+        <v>0.02</v>
       </c>
       <c r="H63" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I63" t="n">
-        <v>0.03</v>
+        <v>0.23</v>
       </c>
       <c r="J63" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>0.39</v>
+        <v>0.02</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
       </c>
       <c r="D64" t="n">
+        <v>3</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.01</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.02</v>
       </c>
       <c r="F64" t="n">
         <v>0.01</v>
       </c>
       <c r="G64" t="n">
-        <v>2.27</v>
+        <v>0.01</v>
       </c>
       <c r="H64" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I64" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
         <v>0.02</v>
       </c>
-      <c r="J64" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.35</v>
+      <c r="L64" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
       </c>
       <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.01</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>0.02</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.01</v>
       </c>
-      <c r="G65" t="n">
-        <v>2.27</v>
-      </c>
       <c r="H65" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I65" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
         <v>0.02</v>
       </c>
-      <c r="J65" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.35</v>
+      <c r="L65" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.01</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
         <v>0.01</v>
       </c>
       <c r="F66" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G66" t="n">
-        <v>2.27</v>
+        <v>0.02</v>
       </c>
       <c r="H66" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I66" t="n">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="J66" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" t="s">
-        <v>107</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E67" t="n">
         <v>0.02</v>
       </c>
-      <c r="F67" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G67" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" t="s">
-        <v>113</v>
-      </c>
-      <c r="C72" t="n">
-        <v>1</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" t="s">
-        <v>114</v>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.33</v>
+      <c r="L66" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>

--- a/resultados/fitossociologico.xlsx
+++ b/resultados/fitossociologico.xlsx
@@ -740,10 +740,10 @@
         <v>8.14</v>
       </c>
       <c r="F2" t="n">
-        <v>56.33</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>29.89</v>
+        <v>47.23</v>
       </c>
       <c r="H2" t="n">
         <v>8.25</v>
@@ -784,10 +784,10 @@
         <v>2.17</v>
       </c>
       <c r="F3" t="n">
-        <v>15.18</v>
+        <v>23.98</v>
       </c>
       <c r="G3" t="n">
-        <v>8.12</v>
+        <v>12.84</v>
       </c>
       <c r="H3" t="n">
         <v>5.38</v>
@@ -828,10 +828,10 @@
         <v>2.78</v>
       </c>
       <c r="F4" t="n">
-        <v>21.24</v>
+        <v>33.56</v>
       </c>
       <c r="G4" t="n">
-        <v>12.9</v>
+        <v>20.38</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -872,10 +872,10 @@
         <v>2.19</v>
       </c>
       <c r="F5" t="n">
-        <v>13.62</v>
+        <v>21.52</v>
       </c>
       <c r="G5" t="n">
-        <v>7.3</v>
+        <v>11.54</v>
       </c>
       <c r="H5" t="n">
         <v>1.25</v>
@@ -916,10 +916,10 @@
         <v>1.45</v>
       </c>
       <c r="F6" t="n">
-        <v>8.34</v>
+        <v>13.17</v>
       </c>
       <c r="G6" t="n">
-        <v>3.15</v>
+        <v>4.97</v>
       </c>
       <c r="H6" t="n">
         <v>2.5</v>
@@ -960,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>6.67</v>
+        <v>10.54</v>
       </c>
       <c r="G7" t="n">
-        <v>3.65</v>
+        <v>5.77</v>
       </c>
       <c r="H7" t="n">
         <v>2.62</v>
@@ -1004,10 +1004,10 @@
         <v>0.77</v>
       </c>
       <c r="F8" t="n">
-        <v>5.34</v>
+        <v>8.44</v>
       </c>
       <c r="G8" t="n">
-        <v>2.82</v>
+        <v>4.46</v>
       </c>
       <c r="H8" t="n">
         <v>1.5</v>
@@ -1048,10 +1048,10 @@
         <v>0.44</v>
       </c>
       <c r="F9" t="n">
-        <v>1.09</v>
+        <v>1.72</v>
       </c>
       <c r="G9" t="n">
-        <v>0.94</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
         <v>2.38</v>
@@ -1092,10 +1092,10 @@
         <v>0.4</v>
       </c>
       <c r="F10" t="n">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.77</v>
+        <v>1.22</v>
       </c>
       <c r="H10" t="n">
         <v>2.62</v>
@@ -1136,10 +1136,10 @@
         <v>0.54</v>
       </c>
       <c r="F11" t="n">
-        <v>2.57</v>
+        <v>4.06</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51</v>
+        <v>2.39</v>
       </c>
       <c r="H11" t="n">
         <v>1.75</v>
@@ -1180,10 +1180,10 @@
         <v>1.47</v>
       </c>
       <c r="F12" t="n">
-        <v>18.05</v>
+        <v>28.51</v>
       </c>
       <c r="G12" t="n">
-        <v>10.83</v>
+        <v>17.11</v>
       </c>
       <c r="H12" t="n">
         <v>0.38</v>
@@ -1224,10 +1224,10 @@
         <v>1.68</v>
       </c>
       <c r="F13" t="n">
-        <v>18.45</v>
+        <v>29.15</v>
       </c>
       <c r="G13" t="n">
-        <v>7.13</v>
+        <v>11.26</v>
       </c>
       <c r="H13" t="n">
         <v>0.25</v>
@@ -1268,10 +1268,10 @@
         <v>0.26</v>
       </c>
       <c r="F14" t="n">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
-        <v>0.68</v>
+        <v>1.07</v>
       </c>
       <c r="H14" t="n">
         <v>1.25</v>
@@ -1312,10 +1312,10 @@
         <v>0.35</v>
       </c>
       <c r="F15" t="n">
-        <v>1.36</v>
+        <v>2.15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.74</v>
+        <v>1.16</v>
       </c>
       <c r="H15" t="n">
         <v>1.75</v>
@@ -1356,10 +1356,10 @@
         <v>0.78</v>
       </c>
       <c r="F16" t="n">
-        <v>3.06</v>
+        <v>4.84</v>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>3.71</v>
       </c>
       <c r="H16" t="n">
         <v>0.5</v>
@@ -1400,10 +1400,10 @@
         <v>0.37</v>
       </c>
       <c r="F17" t="n">
-        <v>3.01</v>
+        <v>4.76</v>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>3.56</v>
       </c>
       <c r="H17" t="n">
         <v>0.88</v>
@@ -1444,10 +1444,10 @@
         <v>0.2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.88</v>
+        <v>1.39</v>
       </c>
       <c r="G18" t="n">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="H18" t="n">
         <v>1.25</v>
@@ -1488,10 +1488,10 @@
         <v>0.26</v>
       </c>
       <c r="F19" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="G19" t="n">
-        <v>0.77</v>
+        <v>1.21</v>
       </c>
       <c r="H19" t="n">
         <v>1.12</v>
@@ -1532,10 +1532,10 @@
         <v>0.23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.95</v>
+        <v>1.51</v>
       </c>
       <c r="G20" t="n">
-        <v>0.57</v>
+        <v>0.91</v>
       </c>
       <c r="H20" t="n">
         <v>1.5</v>
@@ -1576,10 +1576,10 @@
         <v>0.63</v>
       </c>
       <c r="F21" t="n">
-        <v>5.36</v>
+        <v>8.47</v>
       </c>
       <c r="G21" t="n">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="H21" t="n">
         <v>0.25</v>
@@ -1620,10 +1620,10 @@
         <v>0.27</v>
       </c>
       <c r="F22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.86</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.55</v>
       </c>
       <c r="H22" t="n">
         <v>0.75</v>
@@ -1664,10 +1664,10 @@
         <v>0.12</v>
       </c>
       <c r="F23" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1708,10 +1708,10 @@
         <v>0.09</v>
       </c>
       <c r="F24" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="G24" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="H24" t="n">
         <v>0.75</v>
@@ -1752,10 +1752,10 @@
         <v>0.08</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="G25" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="H25" t="n">
         <v>0.5</v>
@@ -1796,10 +1796,10 @@
         <v>0.21</v>
       </c>
       <c r="F26" t="n">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="G26" t="n">
-        <v>0.65</v>
+        <v>1.03</v>
       </c>
       <c r="H26" t="n">
         <v>0.5</v>
@@ -1840,10 +1840,10 @@
         <v>0.13</v>
       </c>
       <c r="F27" t="n">
-        <v>0.54</v>
+        <v>0.85</v>
       </c>
       <c r="G27" t="n">
-        <v>0.29</v>
+        <v>0.46</v>
       </c>
       <c r="H27" t="n">
         <v>0.62</v>
@@ -1884,10 +1884,10 @@
         <v>0.12</v>
       </c>
       <c r="F28" t="n">
-        <v>0.44</v>
+        <v>0.69</v>
       </c>
       <c r="G28" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="H28" t="n">
         <v>0.62</v>
@@ -1928,10 +1928,10 @@
         <v>0.09</v>
       </c>
       <c r="F29" t="n">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="G29" t="n">
-        <v>0.32</v>
+        <v>0.51</v>
       </c>
       <c r="H29" t="n">
         <v>0.62</v>
@@ -1972,10 +1972,10 @@
         <v>0.08</v>
       </c>
       <c r="F30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.26</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.16</v>
       </c>
       <c r="H30" t="n">
         <v>0.62</v>
@@ -2016,10 +2016,10 @@
         <v>0.17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6</v>
+        <v>0.95</v>
       </c>
       <c r="G31" t="n">
-        <v>0.33</v>
+        <v>0.52</v>
       </c>
       <c r="H31" t="n">
         <v>0.75</v>
@@ -2060,10 +2060,10 @@
         <v>0.27</v>
       </c>
       <c r="F32" t="n">
-        <v>1.85</v>
+        <v>2.93</v>
       </c>
       <c r="G32" t="n">
-        <v>1.13</v>
+        <v>1.78</v>
       </c>
       <c r="H32" t="n">
         <v>0.5</v>
@@ -2104,10 +2104,10 @@
         <v>0.2</v>
       </c>
       <c r="F33" t="n">
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="G33" t="n">
-        <v>0.36</v>
+        <v>0.57</v>
       </c>
       <c r="H33" t="n">
         <v>0.88</v>
@@ -2148,10 +2148,10 @@
         <v>0.31</v>
       </c>
       <c r="F34" t="n">
-        <v>1.78</v>
+        <v>2.81</v>
       </c>
       <c r="G34" t="n">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="H34" t="n">
         <v>0.62</v>
@@ -2192,10 +2192,10 @@
         <v>0.17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="G35" t="n">
-        <v>0.53</v>
+        <v>0.84</v>
       </c>
       <c r="H35" t="n">
         <v>0.5</v>
@@ -2236,10 +2236,10 @@
         <v>0.05</v>
       </c>
       <c r="F36" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07</v>
+        <v>0.1</v>
       </c>
       <c r="H36" t="n">
         <v>0.62</v>
@@ -2280,10 +2280,10 @@
         <v>0.05</v>
       </c>
       <c r="F37" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="G37" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="H37" t="n">
         <v>0.38</v>
@@ -2324,10 +2324,10 @@
         <v>0.05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="G38" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="H38" t="n">
         <v>0.38</v>
@@ -2368,10 +2368,10 @@
         <v>0.29</v>
       </c>
       <c r="F39" t="n">
-        <v>1.89</v>
+        <v>2.98</v>
       </c>
       <c r="G39" t="n">
-        <v>1.02</v>
+        <v>1.6</v>
       </c>
       <c r="H39" t="n">
         <v>0.12</v>
@@ -2412,10 +2412,10 @@
         <v>0.05</v>
       </c>
       <c r="F40" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="H40" t="n">
         <v>0.25</v>
@@ -2456,10 +2456,10 @@
         <v>0.04</v>
       </c>
       <c r="F41" t="n">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="G41" t="n">
-        <v>0.17</v>
+        <v>0.27</v>
       </c>
       <c r="H41" t="n">
         <v>0.25</v>
@@ -2500,10 +2500,10 @@
         <v>0.03</v>
       </c>
       <c r="F42" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H42" t="n">
         <v>0.25</v>
@@ -2544,10 +2544,10 @@
         <v>0.02</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="H43" t="n">
         <v>0.25</v>
@@ -2588,7 +2588,7 @@
         <v>0.02</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G44" t="n">
         <v>0.02</v>
@@ -2632,10 +2632,10 @@
         <v>0.12</v>
       </c>
       <c r="F45" t="n">
-        <v>0.75</v>
+        <v>1.19</v>
       </c>
       <c r="G45" t="n">
-        <v>0.19</v>
+        <v>0.3</v>
       </c>
       <c r="H45" t="n">
         <v>0.25</v>
@@ -2676,10 +2676,10 @@
         <v>0.11</v>
       </c>
       <c r="F46" t="n">
-        <v>0.59</v>
+        <v>0.93</v>
       </c>
       <c r="G46" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="H46" t="n">
         <v>0.25</v>
@@ -2720,10 +2720,10 @@
         <v>0.03</v>
       </c>
       <c r="F47" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.09</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.06</v>
       </c>
       <c r="H47" t="n">
         <v>0.38</v>
@@ -2764,10 +2764,10 @@
         <v>0.02</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="H48" t="n">
         <v>0.25</v>
@@ -2808,10 +2808,10 @@
         <v>0.06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="G49" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="H49" t="n">
         <v>0.12</v>
@@ -2852,10 +2852,10 @@
         <v>0.04</v>
       </c>
       <c r="F50" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="H50" t="n">
         <v>0.12</v>
@@ -2896,10 +2896,10 @@
         <v>0.04</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="G51" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="H51" t="n">
         <v>0.12</v>
@@ -2940,10 +2940,10 @@
         <v>0.04</v>
       </c>
       <c r="F52" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="H52" t="n">
         <v>0.12</v>
@@ -2984,10 +2984,10 @@
         <v>0.04</v>
       </c>
       <c r="F53" t="n">
-        <v>0.15</v>
+        <v>0.24</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="H53" t="n">
         <v>0.12</v>
@@ -3028,10 +3028,10 @@
         <v>0.02</v>
       </c>
       <c r="F54" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="H54" t="n">
         <v>0.12</v>
@@ -3072,10 +3072,10 @@
         <v>0.02</v>
       </c>
       <c r="F55" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.07</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.04</v>
       </c>
       <c r="H55" t="n">
         <v>0.12</v>
@@ -3116,10 +3116,10 @@
         <v>0.02</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07</v>
+        <v>0.11</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H56" t="n">
         <v>0.12</v>
@@ -3160,10 +3160,10 @@
         <v>0.02</v>
       </c>
       <c r="F57" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H57" t="n">
         <v>0.12</v>
@@ -3204,7 +3204,7 @@
         <v>0.02</v>
       </c>
       <c r="F58" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -3248,10 +3248,10 @@
         <v>0.01</v>
       </c>
       <c r="F59" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H59" t="n">
         <v>0.12</v>
@@ -3292,10 +3292,10 @@
         <v>0.01</v>
       </c>
       <c r="F60" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.03</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.02</v>
       </c>
       <c r="H60" t="n">
         <v>0.12</v>
@@ -3336,10 +3336,10 @@
         <v>0.01</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H61" t="n">
         <v>0.12</v>
@@ -3380,10 +3380,10 @@
         <v>0.01</v>
       </c>
       <c r="F62" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H62" t="n">
         <v>0.12</v>
@@ -3424,10 +3424,10 @@
         <v>0.01</v>
       </c>
       <c r="F63" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.03</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.02</v>
       </c>
       <c r="H63" t="n">
         <v>0.12</v>
@@ -3468,7 +3468,7 @@
         <v>0.01</v>
       </c>
       <c r="F64" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G64" t="n">
         <v>0.01</v>
@@ -3512,10 +3512,10 @@
         <v>0.01</v>
       </c>
       <c r="F65" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.02</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.01</v>
       </c>
       <c r="H65" t="n">
         <v>0.12</v>
@@ -3556,10 +3556,10 @@
         <v>0.01</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="G66" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H66" t="n">
         <v>0.12</v>
